--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/falcon.x.category.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/falcon.x.category.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BEC0BC-AD35-3C4B-A20B-4495436EEE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93D90C5-15F8-6A45-8EA9-25D6CFB62781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="66440" yWindow="-1780" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>active</t>
   </si>
@@ -164,6 +164,13 @@
   </si>
   <si>
     <t>a5e06e2e-ca3a-4042-a18c-bff9088136e3</t>
+  </si>
+  <si>
+    <t>目录树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>086d23da-6542-46e2-88f9-e848d7df5200</t>
   </si>
 </sst>
 </file>
@@ -702,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD54"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -827,114 +834,125 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="3"/>
-      <c r="K17" s="4"/>
+    <row r="15" spans="1:3">
+      <c r="A15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="4"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="3"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="9" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E21" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G21" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J21" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K21" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="10" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B22" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K22" s="10" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/falcon.x.category.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/falcon.x.category.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93D90C5-15F8-6A45-8EA9-25D6CFB62781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93404EF8-7D9E-D848-92AD-B02E845275FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="66440" yWindow="-1780" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>active</t>
   </si>
@@ -164,13 +164,6 @@
   </si>
   <si>
     <t>a5e06e2e-ca3a-4042-a18c-bff9088136e3</t>
-  </si>
-  <si>
-    <t>目录树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>086d23da-6542-46e2-88f9-e848d7df5200</t>
   </si>
 </sst>
 </file>
@@ -709,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -834,125 +827,114 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>44</v>
-      </c>
+    <row r="17" spans="1:11">
+      <c r="A17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="5"/>
       <c r="G18" s="3"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="K19" s="4"/>
+      <c r="A19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
+      <c r="A20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="10" t="s">
+      <c r="A21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C19:K19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
